--- a/Cases/Benchmarking/shippingBox.xlsx
+++ b/Cases/Benchmarking/shippingBox.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\sbreen\TransportTemperatureModel\Cases\Benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7BC605-273A-487F-A20E-BE47C276ABA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0418AB32-AEE4-4256-A392-CE1F14B5DC43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="1665" windowWidth="21480" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Runtime</t>
   </si>
@@ -136,6 +144,12 @@
   </si>
   <si>
     <t>fixed(0,1)</t>
+  </si>
+  <si>
+    <t>1351s</t>
+  </si>
+  <si>
+    <t>Time = 6000s</t>
   </si>
 </sst>
 </file>
@@ -461,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,6 +782,29 @@
         <v>271.11390999999998</v>
       </c>
     </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>45775</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="1">
+        <v>271.12112999999999</v>
+      </c>
+      <c r="H19">
+        <v>274.73237999999998</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
